--- a/data/trans_dic/P57B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57B_R-Provincia-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01916170022443644</v>
+        <v>0.01937212494176523</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0461383743910368</v>
+        <v>0.04543350900878681</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03727156346554355</v>
+        <v>0.03716752532245467</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06837548441048789</v>
+        <v>0.06599074519088179</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08252582861675686</v>
+        <v>0.08224433216609082</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06497551386104355</v>
+        <v>0.06624688149943669</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.03692884184667675</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.06549846919298094</v>
+        <v>0.06549846919298095</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.05141960294654375</v>
+        <v>0.05141960294654376</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02110743638523021</v>
+        <v>0.02138150091339693</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05063993754433799</v>
+        <v>0.05082492334928138</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03955977792874182</v>
+        <v>0.03868035027989057</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06015107811161125</v>
+        <v>0.06057869900324547</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08516376541003798</v>
+        <v>0.08455408266325148</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06569653821436801</v>
+        <v>0.0651845385354384</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.1117193028740442</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.1556315991098364</v>
+        <v>0.1556315991098365</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.1347925793220866</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0839536449670457</v>
+        <v>0.08275223431480733</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1263335456428659</v>
+        <v>0.1263839386143114</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1138603843803511</v>
+        <v>0.1125967073468996</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1495150557610352</v>
+        <v>0.1479695598619627</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1880028321681101</v>
+        <v>0.1865459643137463</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1575805630177178</v>
+        <v>0.1605288128118379</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.06743753062721476</v>
+        <v>0.06743753062721473</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.1225207766639726</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.09657475864070132</v>
+        <v>0.09657475864070135</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0410667780178162</v>
+        <v>0.04026873571844274</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09304977802768026</v>
+        <v>0.09580010740847987</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07612261253353113</v>
+        <v>0.07765782484724836</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1091012953822832</v>
+        <v>0.1072554349473355</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1600864281030425</v>
+        <v>0.1610000772508154</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1211554479314285</v>
+        <v>0.120928838989054</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.2362156759928732</v>
+        <v>0.2362156759928733</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.3133127682724195</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1883999990791798</v>
+        <v>0.189066318210325</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2739862544058783</v>
+        <v>0.2702533057864906</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2479089552471515</v>
+        <v>0.2464805322571942</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2881296703130837</v>
+        <v>0.2946141549868563</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3621545620904957</v>
+        <v>0.3591202844572826</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3107321863686625</v>
+        <v>0.3102320387327793</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.1489317423305378</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.1992277014297078</v>
+        <v>0.1992277014297077</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.1737874267577375</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1150554275856016</v>
+        <v>0.1171465177869736</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1672531777264638</v>
+        <v>0.1666946725942791</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1492998231226435</v>
+        <v>0.1497236161792544</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1829687933448875</v>
+        <v>0.185328722720441</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2342761453512295</v>
+        <v>0.2384535847252255</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1963946803420544</v>
+        <v>0.1995710854149256</v>
       </c>
     </row>
     <row r="22">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.07141242150146586</v>
+        <v>0.07141242150146584</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.1039416135599343</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05410480334414731</v>
+        <v>0.0512998147359755</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08359699299042772</v>
+        <v>0.08606617792457068</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.07452983835946404</v>
+        <v>0.07374862937293647</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.09657823253494111</v>
+        <v>0.09469302479223884</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.126733707498155</v>
+        <v>0.1289907297607585</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1056846148846516</v>
+        <v>0.1043431800159103</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1365763302759882</v>
+        <v>0.1372713682653666</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1964945013894209</v>
+        <v>0.1949269073574606</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1715146012008166</v>
+        <v>0.1723644127349984</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1919961785352209</v>
+        <v>0.1904637007142877</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2463003759359026</v>
+        <v>0.2449155142402618</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2080722615224811</v>
+        <v>0.2092106501395973</v>
       </c>
     </row>
     <row r="28">
@@ -1007,7 +1007,7 @@
         <v>0.1021706220805332</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.1475312675094848</v>
+        <v>0.1475312675094847</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0.1254441700403704</v>
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.09194559555463047</v>
+        <v>0.09326011257788132</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1379396183898319</v>
+        <v>0.1377898445649172</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1189350111770999</v>
+        <v>0.1191688562675132</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1136340313038072</v>
+        <v>0.1131820528511616</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1573843814129733</v>
+        <v>0.158588840036393</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1321030025201212</v>
+        <v>0.133037194885832</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6089</v>
+        <v>6156</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>14583</v>
+        <v>14360</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>23624</v>
+        <v>23558</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>21727</v>
+        <v>20970</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>26083</v>
+        <v>25994</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>41183</v>
+        <v>41989</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>11037</v>
+        <v>11180</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>27253</v>
+        <v>27353</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>41975</v>
+        <v>41042</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>31452</v>
+        <v>31675</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>45833</v>
+        <v>45505</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>69708</v>
+        <v>69164</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>25972</v>
+        <v>25600</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>43273</v>
+        <v>43290</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>74224</v>
+        <v>73400</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>46254</v>
+        <v>45776</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>64396</v>
+        <v>63897</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>102724</v>
+        <v>104646</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>14278</v>
+        <v>14001</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>36331</v>
+        <v>37405</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>56189</v>
+        <v>57322</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>37933</v>
+        <v>37291</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>62506</v>
+        <v>62863</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>89430</v>
+        <v>89262</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>38425</v>
+        <v>38560</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>61815</v>
+        <v>60973</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>106493</v>
+        <v>105880</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>58765</v>
+        <v>60087</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>81707</v>
+        <v>81023</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>133480</v>
+        <v>133265</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>31060</v>
+        <v>31624</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>44113</v>
+        <v>43966</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>79682</v>
+        <v>79908</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>49393</v>
+        <v>50030</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>61790</v>
+        <v>62892</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>104817</v>
+        <v>106512</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>38745</v>
+        <v>36736</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>63869</v>
+        <v>65756</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>110313</v>
+        <v>109157</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>69160</v>
+        <v>67810</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>96826</v>
+        <v>98551</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>156426</v>
+        <v>154441</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>108687</v>
+        <v>109240</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>163097</v>
+        <v>161795</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>278853</v>
+        <v>280235</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>152790</v>
+        <v>151570</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>204437</v>
+        <v>203287</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>338290</v>
+        <v>340140</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>320293</v>
+        <v>324872</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>506324</v>
+        <v>505775</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>850876</v>
+        <v>852549</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>395844</v>
+        <v>394270</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>577699</v>
+        <v>582120</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>945081</v>
+        <v>951765</v>
       </c>
     </row>
     <row r="40">
